--- a/Database/moneymarkets.xlsx
+++ b/Database/moneymarkets.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/FinanceDatabase/Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB542E8C-58A2-E940-89C0-D1A120EE8DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88178B-A2A9-DF4B-A923-E870C82E2A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moneymarkets" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8203" uniqueCount="1803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8202" uniqueCount="1823">
   <si>
     <t>currency</t>
   </si>
@@ -5442,12 +5442,72 @@
   </si>
   <si>
     <t>U.S.Government Portfolio</t>
+  </si>
+  <si>
+    <t>SEI Daily Income Trust Government Fund</t>
+  </si>
+  <si>
+    <t>AARP Money Market Fund</t>
+  </si>
+  <si>
+    <t>Fortis Government Money Market Fund</t>
+  </si>
+  <si>
+    <t>Dryden Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Advantage Institutional Government Money Market Fund</t>
+  </si>
+  <si>
+    <t>American Beacon Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Tax Exempt Money Market Class Fund</t>
+  </si>
+  <si>
+    <t>Pioneer Institutional Money Market Fund</t>
+  </si>
+  <si>
+    <t>AMF Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Ohio Municipal Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Pennsylvania Tax-Exempt Money Market Fund</t>
+  </si>
+  <si>
+    <t>Wilmington Prime Money Market Fund</t>
+  </si>
+  <si>
+    <t>Fortis Tax-Exempt Money Market Fund</t>
+  </si>
+  <si>
+    <t>PNC Treasury Money Market Fund</t>
+  </si>
+  <si>
+    <t>Fortis Treasury Money Market Fund</t>
+  </si>
+  <si>
+    <t>Fortis Money Market Fund</t>
+  </si>
+  <si>
+    <t>American Beacon US Government Money Market Fund</t>
+  </si>
+  <si>
+    <t>Sterling Capital National Tax-Free Money Market Fund</t>
+  </si>
+  <si>
+    <t>BBH US Treasury Money Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6295,14 +6355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1334" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1359" sqref="B1359"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6313,6 +6373,7 @@
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" hidden="1"/>
   </cols>
   <sheetData>
@@ -6341,7 +6402,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1470</v>
+        <v>1803</v>
       </c>
       <c r="C2" t="s">
         <v>1470</v>
@@ -6421,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>1470</v>
+        <v>1804</v>
       </c>
       <c r="C6" t="s">
         <v>1470</v>
@@ -6441,7 +6502,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>1470</v>
+        <v>1806</v>
       </c>
       <c r="C7" t="s">
         <v>1470</v>
@@ -6461,7 +6522,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1470</v>
+        <v>1807</v>
       </c>
       <c r="C8" t="s">
         <v>1470</v>
@@ -6521,10 +6582,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>1470</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1470</v>
+        <v>1808</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -6541,7 +6599,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>1470</v>
+        <v>1805</v>
       </c>
       <c r="C12" t="s">
         <v>1470</v>
@@ -6561,7 +6619,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>1470</v>
+        <v>1806</v>
       </c>
       <c r="C13" t="s">
         <v>1470</v>
@@ -6701,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>1470</v>
+        <v>1809</v>
       </c>
       <c r="C20" t="s">
         <v>1470</v>
@@ -6761,7 +6819,7 @@
         <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>1470</v>
+        <v>1810</v>
       </c>
       <c r="C23" t="s">
         <v>1470</v>
@@ -6801,7 +6859,7 @@
         <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>1470</v>
+        <v>1810</v>
       </c>
       <c r="C25" t="s">
         <v>1470</v>
@@ -7081,7 +7139,7 @@
         <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>1470</v>
+        <v>1811</v>
       </c>
       <c r="C39" t="s">
         <v>1470</v>
@@ -7201,7 +7259,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>1470</v>
+        <v>1809</v>
       </c>
       <c r="C45" t="s">
         <v>1470</v>
@@ -7221,7 +7279,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>1470</v>
+        <v>1812</v>
       </c>
       <c r="C46" t="s">
         <v>1470</v>
@@ -7281,7 +7339,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>1470</v>
+        <v>1813</v>
       </c>
       <c r="C49" t="s">
         <v>1470</v>
@@ -7301,7 +7359,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>1470</v>
+        <v>1813</v>
       </c>
       <c r="C50" t="s">
         <v>1470</v>
@@ -7321,7 +7379,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>1470</v>
+        <v>1808</v>
       </c>
       <c r="C51" t="s">
         <v>1470</v>
@@ -7401,7 +7459,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>1470</v>
+        <v>1814</v>
       </c>
       <c r="C55" t="s">
         <v>1470</v>
@@ -7501,7 +7559,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>1470</v>
+        <v>1814</v>
       </c>
       <c r="C60" t="s">
         <v>1470</v>
@@ -7541,7 +7599,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>1470</v>
+        <v>1815</v>
       </c>
       <c r="C62" t="s">
         <v>1470</v>
@@ -7561,7 +7619,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>1470</v>
+        <v>1809</v>
       </c>
       <c r="C63" t="s">
         <v>1470</v>
@@ -7581,7 +7639,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>1470</v>
+        <v>1809</v>
       </c>
       <c r="C64" t="s">
         <v>1470</v>
@@ -7601,7 +7659,7 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>1470</v>
+        <v>1806</v>
       </c>
       <c r="C65" t="s">
         <v>1470</v>
@@ -7621,7 +7679,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>1470</v>
+        <v>1811</v>
       </c>
       <c r="C66" t="s">
         <v>1470</v>
@@ -7641,7 +7699,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>1470</v>
+        <v>1811</v>
       </c>
       <c r="C67" t="s">
         <v>1470</v>
@@ -7661,7 +7719,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>1470</v>
+        <v>1806</v>
       </c>
       <c r="C68" t="s">
         <v>1470</v>
@@ -7681,7 +7739,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>1470</v>
+        <v>1816</v>
       </c>
       <c r="C69" t="s">
         <v>1470</v>
@@ -7701,7 +7759,7 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>1470</v>
+        <v>1817</v>
       </c>
       <c r="C70" t="s">
         <v>1470</v>
@@ -7721,7 +7779,7 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>1470</v>
+        <v>1818</v>
       </c>
       <c r="C71" t="s">
         <v>1470</v>
@@ -7741,7 +7799,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>1470</v>
+        <v>1817</v>
       </c>
       <c r="C72" t="s">
         <v>1470</v>
@@ -7761,7 +7819,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>1470</v>
+        <v>1819</v>
       </c>
       <c r="C73" t="s">
         <v>1470</v>
@@ -7781,7 +7839,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>1470</v>
+        <v>1820</v>
       </c>
       <c r="C74" t="s">
         <v>1470</v>
@@ -7801,7 +7859,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>1470</v>
+        <v>1810</v>
       </c>
       <c r="C75" t="s">
         <v>1470</v>
@@ -7821,7 +7879,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>1470</v>
+        <v>1821</v>
       </c>
       <c r="C76" t="s">
         <v>1470</v>
@@ -7841,10 +7899,10 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>1470</v>
+        <v>1822</v>
       </c>
       <c r="C77" t="s">
-        <v>1470</v>
+        <v>1480</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
